--- a/Clases webDriver y WebElement.xlsx
+++ b/Clases webDriver y WebElement.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wilmer\Documents\Personal\Automatizacion\Automatizacion\AutomatizacionPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4D6E3ED-5D56-4430-A8B0-6AAF440F85D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA74C544-22EE-408F-AB3F-71D7619EE2AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="92">
   <si>
     <t>Propiedad/Atributo</t>
   </si>
@@ -208,13 +208,106 @@
   </si>
   <si>
     <t>header.value_of_css_property(‘background-color’)</t>
+  </si>
+  <si>
+    <t>Expected Condition</t>
+  </si>
+  <si>
+    <t>element_to_be_clickable(locator)</t>
+  </si>
+  <si>
+    <t>Espera a que el elemento sea visible y habilitado para hacer clic en el mismo</t>
+  </si>
+  <si>
+    <t>WebDriverWait(self.driver,10).until(expected_conditions.element_to_be_clickable((By.NAME,“accept_button”)))</t>
+  </si>
+  <si>
+    <t>element_to_be_selected(element)</t>
+  </si>
+  <si>
+    <t>Espera a que un elemento sea seleccionado</t>
+  </si>
+  <si>
+    <t>subscription = self.driver.find_element_by_name(“terms”). WebDriverWait(self.driver, 10).until(expected_conditions.element_to_be_selected(terms)))</t>
+  </si>
+  <si>
+    <t>invisibility_of_element_located(locator)</t>
+  </si>
+  <si>
+    <t>Espera a que un elemento no sea visible o no se encuentre presente en el DOM</t>
+  </si>
+  <si>
+    <t>WebDriverWait(self.driver,10).until(expected_conditions.invisibility_of_element_located((By.ID,“loading_banner”)))</t>
+  </si>
+  <si>
+    <t>presence_of_all_elements_located(locator)</t>
+  </si>
+  <si>
+    <t>Espera a que por lo menos uno de los elementos que se indican coincida con los presentes en el sitio</t>
+  </si>
+  <si>
+    <t>WebDriverWait(self.driver,10).until(expected_conditions.presence_of_all_elements_located((By.CLASS_NAME,“input-text”)))</t>
+  </si>
+  <si>
+    <t>presence_of_element_located(locator)</t>
+  </si>
+  <si>
+    <t>Espera a que un elemento sea visible se encuentre presente en el DOM</t>
+  </si>
+  <si>
+    <t>WebDriverWait(self.driver,10).until(expected_conditions.presence_of_element_located((By.ID,“search-bar”)))</t>
+  </si>
+  <si>
+    <t>text_to_be_present_in_element(locator,text_)</t>
+  </si>
+  <si>
+    <t>Espera a que un elemento con el texto indicado se encuentre presente</t>
+  </si>
+  <si>
+    <t>WebDriverWait(self.driver,10).until(expected_conditions.text_to_be_present_in_element((By.ID,“seleorder”),“high”))</t>
+  </si>
+  <si>
+    <t>title_contains(title)</t>
+  </si>
+  <si>
+    <t>Espera a que la página contenga en el título exactamente como es indicado</t>
+  </si>
+  <si>
+    <t>WebDriverWait(self.driver, 10).until(expected_conditions.title_contains(“Welcome”))</t>
+  </si>
+  <si>
+    <t>title_is(title)</t>
+  </si>
+  <si>
+    <t>Espera a que la página tenga un título idéntico a como es indicado</t>
+  </si>
+  <si>
+    <t>WebDriverWait(self.driver, 10).until(expected_conditions.title_is(“Welcome to Platzi”))</t>
+  </si>
+  <si>
+    <t>visibility_of(element)</t>
+  </si>
+  <si>
+    <t>Espera a que el elemento indicado esté en el DOM, sea visible, su alto y ancho sean mayores a cero</t>
+  </si>
+  <si>
+    <t>first_name = self.driver.find_element_by_id(“firstname”) WebDriverWait(self.driver, 10).until(expected_conditions.visibility_of(first_name))</t>
+  </si>
+  <si>
+    <t>visibility_of_element_located(locator)</t>
+  </si>
+  <si>
+    <t>Espera a que el elemento indicado por su selector esté en el DOM, sea visible y que su alto y ancho sean mayores a cero</t>
+  </si>
+  <si>
+    <t>WebDriverWait(self.driver,10).until(expected_conditions.visibility_of_element_located((By.ID,“firstname”)))</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +330,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -314,7 +415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -334,6 +435,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -615,15 +720,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="64.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="37.42578125" customWidth="1"/>
+    <col min="1" max="1" width="58.140625" customWidth="1"/>
+    <col min="2" max="2" width="67.28515625" customWidth="1"/>
+    <col min="3" max="3" width="92.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -768,7 +875,7 @@
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>33</v>
       </c>
@@ -779,7 +886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="64.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="64.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -789,8 +896,9 @@
       <c r="C18" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>37</v>
       </c>
@@ -801,7 +909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -812,7 +920,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>43</v>
       </c>
@@ -823,7 +931,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -834,7 +942,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>49</v>
       </c>
@@ -845,7 +953,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>52</v>
       </c>
@@ -856,7 +964,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -867,7 +975,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>58</v>
       </c>
@@ -876,6 +984,128 @@
       </c>
       <c r="C26" s="2" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="64.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="102" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="64.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -886,8 +1116,13 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C5" r:id="rId1" display="http://driver.name/" xr:uid="{924CD4A5-CF66-4A6D-B6B1-4D5BC1993ABD}"/>
+    <hyperlink ref="C30" r:id="rId2" display="http://by.name/" xr:uid="{0806FF3B-D305-490F-B85D-72D5A5F91D0E}"/>
+    <hyperlink ref="C32" r:id="rId3" display="http://by.id/" xr:uid="{00D618F8-E46A-40CC-A9A4-AB202DA40378}"/>
+    <hyperlink ref="C34" r:id="rId4" display="http://by.id/" xr:uid="{70F32D62-A67B-4963-AA54-74A4D40B57D2}"/>
+    <hyperlink ref="C35" r:id="rId5" display="http://by.id/" xr:uid="{8478422A-9626-4CA4-9F17-0E6D6D822E35}"/>
+    <hyperlink ref="C39" r:id="rId6" display="http://by.id/" xr:uid="{7F37B6CE-5689-4271-89FD-86CA7C0D5B4B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>